--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26194391-5041-40F7-8A3D-CF392900607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226C230-9D1A-410E-AA5E-94CEFF38F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="367">
   <si>
     <t>Name</t>
   </si>
@@ -841,15 +841,9 @@
     <t>createofficevariant</t>
   </si>
   <si>
-    <t>respec/msword</t>
-  </si>
-  <si>
     <t>Specify the type of office file. Multiple formats are allowed, separate list by whitespace.</t>
   </si>
   <si>
-    <t>respec msword</t>
-  </si>
-  <si>
     <t>createskos</t>
   </si>
   <si>
@@ -1124,6 +1118,15 @@
   </si>
   <si>
     <t>STC-Armatiek</t>
+  </si>
+  <si>
+    <t>respec/msword/documentor</t>
+  </si>
+  <si>
+    <t>documentor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1596,13 +1599,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1626,10 +1629,9 @@
     <col min="17" max="17" width="15.765625" customWidth="1"/>
     <col min="18" max="18" width="16.07421875" customWidth="1"/>
     <col min="19" max="19" width="4.4609375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="27.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1681,46 +1683,44 @@
         <v>253</v>
       </c>
       <c r="S1" s="12"/>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S2" s="13"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
@@ -1739,9 +1739,8 @@
       <c r="G3" s="14"/>
       <c r="M3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1763,9 +1762,8 @@
       <c r="G4" s="14"/>
       <c r="M4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1787,9 +1785,8 @@
       <c r="G5" s="14"/>
       <c r="M5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
@@ -1808,9 +1805,8 @@
       <c r="G6" s="14"/>
       <c r="M6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -1829,9 +1825,8 @@
       <c r="G7" s="14"/>
       <c r="M7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1839,17 +1834,16 @@
       <c r="G8" s="14"/>
       <c r="M8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
@@ -1863,9 +1857,8 @@
       <c r="G9" s="14"/>
       <c r="M9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>162</v>
       </c>
@@ -1887,9 +1880,8 @@
       <c r="G10" s="14"/>
       <c r="M10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1911,9 +1903,8 @@
       <c r="G11" s="14"/>
       <c r="M11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
@@ -1932,9 +1923,8 @@
       <c r="G12" s="14"/>
       <c r="M12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12"/>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -1956,9 +1946,8 @@
       <c r="G13" s="14"/>
       <c r="M13" s="14"/>
       <c r="S13" s="14"/>
-      <c r="T13"/>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -1980,9 +1969,8 @@
       <c r="G14" s="14"/>
       <c r="M14" s="14"/>
       <c r="S14" s="14"/>
-      <c r="T14"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2004,9 +1992,8 @@
       <c r="G15" s="14"/>
       <c r="M15" s="14"/>
       <c r="S15" s="14"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2040,9 +2027,8 @@
         <v>207</v>
       </c>
       <c r="S16" s="14"/>
-      <c r="T16"/>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2064,9 +2050,8 @@
       <c r="G17" s="14"/>
       <c r="M17" s="14"/>
       <c r="S17" s="14"/>
-      <c r="T17"/>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>223</v>
       </c>
@@ -2088,9 +2073,8 @@
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>225</v>
       </c>
@@ -2103,14 +2087,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G19" s="14"/>
       <c r="M19" s="14"/>
       <c r="S19" s="14"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>166</v>
       </c>
@@ -2129,9 +2112,8 @@
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
       <c r="S20" s="14"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2148,14 +2130,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -2172,14 +2153,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G22" s="14"/>
       <c r="M22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2207,9 +2187,8 @@
         <v>16</v>
       </c>
       <c r="S23" s="14"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2231,9 +2210,8 @@
       <c r="G24" s="14"/>
       <c r="M24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -2252,9 +2230,8 @@
       <c r="G25" s="14"/>
       <c r="M25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25"/>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2276,9 +2253,8 @@
       <c r="G26" s="14"/>
       <c r="M26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="T26"/>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2306,17 +2282,16 @@
         <v>16</v>
       </c>
       <c r="S27" s="14"/>
-      <c r="T27"/>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2337,15 +2312,15 @@
       </c>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
@@ -2359,9 +2334,8 @@
       <c r="G29" s="14"/>
       <c r="M29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2383,9 +2357,8 @@
       <c r="G30" s="14"/>
       <c r="M30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
@@ -2405,17 +2378,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M31" s="14"/>
-      <c r="N31" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S31" s="14"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>260</v>
       </c>
@@ -2440,9 +2406,8 @@
       </c>
       <c r="M32" s="14"/>
       <c r="S32" s="14"/>
-      <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
@@ -2459,22 +2424,21 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G33" s="14"/>
       <c r="M33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33"/>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
@@ -2495,7 +2459,7 @@
       </c>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2512,29 +2476,13 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M35" s="14"/>
       <c r="S35" s="14"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>170</v>
       </c>
@@ -2553,9 +2501,8 @@
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
       <c r="S36" s="14"/>
-      <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>173</v>
       </c>
@@ -2572,23 +2519,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G37" s="14"/>
       <c r="M37" s="14"/>
       <c r="S37" s="14"/>
-      <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
@@ -2596,44 +2542,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="M38" s="14"/>
-      <c r="N38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S38" s="14"/>
-      <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2655,17 +2573,16 @@
       <c r="G39" s="14"/>
       <c r="M39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D40" s="18" t="b">
         <v>0</v>
@@ -2691,17 +2608,16 @@
       </c>
       <c r="M40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D41" s="18" t="b">
         <v>0</v>
@@ -2724,9 +2640,8 @@
       </c>
       <c r="M41" s="14"/>
       <c r="S41" s="14"/>
-      <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2754,9 +2669,8 @@
       </c>
       <c r="M42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2778,9 +2692,8 @@
       <c r="G43" s="14"/>
       <c r="M43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,9 +2721,8 @@
         <v>16</v>
       </c>
       <c r="S44" s="14"/>
-      <c r="T44"/>
-    </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -2832,9 +2744,8 @@
       <c r="G45" s="14"/>
       <c r="M45" s="14"/>
       <c r="S45" s="14"/>
-      <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
@@ -2856,9 +2767,8 @@
       <c r="G46" s="14"/>
       <c r="M46" s="14"/>
       <c r="S46" s="14"/>
-      <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -2880,9 +2790,8 @@
       <c r="G47" s="14"/>
       <c r="M47" s="14"/>
       <c r="S47" s="14"/>
-      <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
@@ -2904,9 +2813,8 @@
       <c r="G48" s="14"/>
       <c r="M48" s="14"/>
       <c r="S48" s="14"/>
-      <c r="T48"/>
-    </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="21" t="s">
         <v>51</v>
       </c>
@@ -2928,9 +2836,8 @@
       <c r="G49" s="14"/>
       <c r="M49" s="14"/>
       <c r="S49" s="14"/>
-      <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2938,9 +2845,8 @@
       <c r="G50" s="14"/>
       <c r="M50" s="14"/>
       <c r="S50" s="14"/>
-      <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -2959,9 +2865,8 @@
       <c r="G51" s="14"/>
       <c r="M51" s="14"/>
       <c r="S51" s="14"/>
-      <c r="T51"/>
-    </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2983,9 +2888,8 @@
       <c r="G52" s="14"/>
       <c r="M52" s="14"/>
       <c r="S52" s="14"/>
-      <c r="T52"/>
-    </row>
-    <row r="53" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3007,9 +2911,8 @@
       <c r="G53" s="15"/>
       <c r="M53" s="14"/>
       <c r="S53" s="14"/>
-      <c r="T53"/>
-    </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>221</v>
       </c>
@@ -3024,9 +2927,8 @@
       <c r="G54" s="15"/>
       <c r="M54" s="15"/>
       <c r="S54" s="15"/>
-      <c r="T54"/>
-    </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>181</v>
       </c>
@@ -3048,9 +2950,8 @@
       <c r="G55" s="14"/>
       <c r="M55" s="14"/>
       <c r="S55" s="14"/>
-      <c r="T55"/>
-    </row>
-    <row r="56" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>183</v>
       </c>
@@ -3072,9 +2973,8 @@
       <c r="G56" s="14"/>
       <c r="M56" s="14"/>
       <c r="S56" s="14"/>
-      <c r="T56"/>
-    </row>
-    <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -3096,9 +2996,8 @@
       <c r="G57" s="14"/>
       <c r="M57" s="14"/>
       <c r="S57" s="14"/>
-      <c r="T57"/>
-    </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,9 +3019,8 @@
       <c r="G58" s="14"/>
       <c r="M58" s="14"/>
       <c r="S58" s="14"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -3144,9 +3042,8 @@
       <c r="G59" s="14"/>
       <c r="M59" s="14"/>
       <c r="S59" s="14"/>
-      <c r="T59"/>
-    </row>
-    <row r="60" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>186</v>
       </c>
@@ -3168,17 +3065,16 @@
       <c r="G60" s="14"/>
       <c r="M60" s="14"/>
       <c r="S60" s="14"/>
-      <c r="T60"/>
-    </row>
-    <row r="61" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>0</v>
@@ -3191,23 +3087,20 @@
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="M61" s="14"/>
-      <c r="N61" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D62" s="11" t="b">
         <v>0</v>
@@ -3230,39 +3123,38 @@
       <c r="R62" s="11"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="D63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="G63" s="14"/>
       <c r="M63" s="14"/>
       <c r="S63" s="14"/>
-      <c r="T63"/>
-    </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" s="5" t="b">
         <v>0</v>
@@ -3284,9 +3176,8 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
       <c r="S64" s="14"/>
-      <c r="T64"/>
-    </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3305,17 +3196,16 @@
       <c r="G65" s="14"/>
       <c r="M65" s="14"/>
       <c r="S65" s="14"/>
-      <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -3324,22 +3214,21 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G66" s="14"/>
       <c r="M66" s="14"/>
       <c r="S66" s="14"/>
-      <c r="T66"/>
-    </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -3348,14 +3237,13 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G67" s="14"/>
       <c r="M67" s="14"/>
       <c r="S67" s="14"/>
-      <c r="T67"/>
-    </row>
-    <row r="68" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>241</v>
       </c>
@@ -3372,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="11"/>
@@ -3388,7 +3276,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="16"/>
     </row>
-    <row r="69" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>190</v>
       </c>
@@ -3410,9 +3298,8 @@
       <c r="G69" s="14"/>
       <c r="M69" s="14"/>
       <c r="S69" s="14"/>
-      <c r="T69"/>
-    </row>
-    <row r="70" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
@@ -3434,17 +3321,16 @@
       <c r="G70" s="14"/>
       <c r="M70" s="14"/>
       <c r="S70" s="14"/>
-      <c r="T70"/>
-    </row>
-    <row r="71" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>0</v>
@@ -3458,9 +3344,8 @@
       <c r="G71" s="14"/>
       <c r="M71" s="14"/>
       <c r="S71" s="14"/>
-      <c r="T71"/>
-    </row>
-    <row r="72" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>66</v>
       </c>
@@ -3482,9 +3367,8 @@
       <c r="G72" s="14"/>
       <c r="M72" s="14"/>
       <c r="S72" s="14"/>
-      <c r="T72"/>
-    </row>
-    <row r="73" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -3506,17 +3390,16 @@
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
       <c r="S73" s="14"/>
-      <c r="T73"/>
-    </row>
-    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -3525,14 +3408,13 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G74" s="14"/>
       <c r="M74" s="14"/>
       <c r="S74" s="14"/>
-      <c r="T74"/>
-    </row>
-    <row r="75" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -3554,9 +3436,8 @@
       <c r="G75" s="14"/>
       <c r="M75" s="14"/>
       <c r="S75" s="14"/>
-      <c r="T75"/>
-    </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -3573,14 +3454,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G76" s="14"/>
       <c r="M76" s="14"/>
       <c r="S76" s="14"/>
-      <c r="T76"/>
-    </row>
-    <row r="77" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>193</v>
       </c>
@@ -3602,9 +3482,8 @@
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
       <c r="S77" s="14"/>
-      <c r="T77"/>
-    </row>
-    <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>254</v>
       </c>
@@ -3626,9 +3505,8 @@
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
       <c r="S78" s="14"/>
-      <c r="T78"/>
-    </row>
-    <row r="79" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -3647,17 +3525,16 @@
       <c r="G79" s="14"/>
       <c r="M79" s="14"/>
       <c r="S79" s="14"/>
-      <c r="T79"/>
-    </row>
-    <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
@@ -3666,22 +3543,21 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G80" s="14"/>
       <c r="M80" s="14"/>
       <c r="S80" s="14"/>
-      <c r="T80"/>
-    </row>
-    <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>0</v>
@@ -3690,22 +3566,21 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
-      <c r="T81"/>
-    </row>
-    <row r="82" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3715,48 +3590,47 @@
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S82" s="14"/>
-      <c r="T82"/>
-    </row>
-    <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>0</v>
@@ -3767,9 +3641,8 @@
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
       <c r="S83" s="14"/>
-      <c r="T83"/>
-    </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
@@ -3777,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
@@ -3788,17 +3661,16 @@
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
-      <c r="T84"/>
-    </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>0</v>
@@ -3813,15 +3685,15 @@
       <c r="M85" s="14"/>
       <c r="S85" s="14"/>
     </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
@@ -3830,36 +3702,36 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G86" s="14"/>
       <c r="M86" s="14"/>
       <c r="S86" s="14"/>
     </row>
-    <row r="87" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="88" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>75</v>
       </c>
@@ -3881,17 +3753,16 @@
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
-      <c r="T88"/>
-    </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>0</v>
@@ -3915,9 +3786,8 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="14"/>
-      <c r="T89"/>
-    </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -3939,9 +3809,8 @@
       <c r="G90" s="14"/>
       <c r="M90" s="14"/>
       <c r="S90" s="14"/>
-      <c r="T90"/>
-    </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>77</v>
       </c>
@@ -3963,9 +3832,8 @@
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
-      <c r="T91"/>
-    </row>
-    <row r="92" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>79</v>
       </c>
@@ -3984,9 +3852,8 @@
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
-      <c r="T92"/>
-    </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4008,9 +3875,8 @@
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
-      <c r="T93"/>
-    </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>84</v>
       </c>
@@ -4027,14 +3893,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G94" s="14"/>
       <c r="M94" s="14"/>
       <c r="S94" s="14"/>
-      <c r="T94"/>
-    </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>197</v>
       </c>
@@ -4056,9 +3921,8 @@
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
-      <c r="T95"/>
-    </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:19" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>200</v>
       </c>
@@ -4080,9 +3944,8 @@
       <c r="G96" s="14"/>
       <c r="M96" s="14"/>
       <c r="S96" s="14"/>
-      <c r="T96"/>
-    </row>
-    <row r="97" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4100,40 +3963,39 @@
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M97" s="14"/>
       <c r="N97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S97" s="14"/>
-      <c r="T97"/>
-    </row>
-    <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
@@ -4155,9 +4017,8 @@
       <c r="G98" s="14"/>
       <c r="M98" s="14"/>
       <c r="S98" s="14"/>
-      <c r="T98"/>
-    </row>
-    <row r="99" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>92</v>
       </c>
@@ -4179,9 +4040,8 @@
       <c r="G99" s="14"/>
       <c r="M99" s="14"/>
       <c r="S99" s="14"/>
-      <c r="T99"/>
-    </row>
-    <row r="100" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>150</v>
       </c>
@@ -4203,17 +4063,16 @@
       <c r="G100" s="14"/>
       <c r="M100" s="14"/>
       <c r="S100" s="14"/>
-      <c r="T100"/>
-    </row>
-    <row r="101" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A101" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D101" s="18" t="b">
         <v>0</v>
@@ -4241,9 +4100,8 @@
         <v>4</v>
       </c>
       <c r="S101" s="14"/>
-      <c r="T101"/>
-    </row>
-    <row r="102" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -4265,9 +4123,8 @@
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
       <c r="S102" s="14"/>
-      <c r="T102"/>
-    </row>
-    <row r="103" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>226</v>
       </c>
@@ -4303,9 +4160,8 @@
         <v>16</v>
       </c>
       <c r="S103" s="14"/>
-      <c r="T103"/>
-    </row>
-    <row r="104" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>152</v>
       </c>
@@ -4327,9 +4183,8 @@
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
       <c r="S104" s="14"/>
-      <c r="T104"/>
-    </row>
-    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -4351,9 +4206,8 @@
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
       <c r="S105" s="14"/>
-      <c r="T105"/>
-    </row>
-    <row r="106" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>202</v>
       </c>
@@ -4375,9 +4229,8 @@
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
-      <c r="T106"/>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>248</v>
       </c>
@@ -4399,9 +4252,8 @@
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
       <c r="S107" s="14"/>
-      <c r="T107"/>
-    </row>
-    <row r="108" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
@@ -4409,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
@@ -4423,17 +4275,16 @@
       <c r="G108" s="14"/>
       <c r="M108" s="14"/>
       <c r="S108" s="14"/>
-      <c r="T108"/>
-    </row>
-    <row r="109" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>0</v>
@@ -4447,17 +4298,16 @@
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
       <c r="S109" s="14"/>
-      <c r="T109"/>
-    </row>
-    <row r="110" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -4466,15 +4316,14 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
       <c r="T110"/>
-      <c r="U110"/>
-    </row>
-    <row r="111" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
@@ -4496,9 +4345,8 @@
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
-      <c r="T111"/>
-    </row>
-    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
@@ -4520,17 +4368,16 @@
       <c r="G112" s="14"/>
       <c r="M112" s="14"/>
       <c r="S112" s="14"/>
-      <c r="T112"/>
-    </row>
-    <row r="113" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4539,14 +4386,13 @@
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G113" s="14"/>
       <c r="M113" s="14"/>
       <c r="S113" s="14"/>
-      <c r="T113"/>
-    </row>
-    <row r="114" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>105</v>
       </c>
@@ -4568,9 +4414,8 @@
       <c r="G114" s="14"/>
       <c r="M114" s="14"/>
       <c r="S114" s="14"/>
-      <c r="T114"/>
-    </row>
-    <row r="115" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>205</v>
       </c>
@@ -4589,9 +4434,8 @@
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
       <c r="S115" s="14"/>
-      <c r="T115"/>
-    </row>
-    <row r="116" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>107</v>
       </c>
@@ -4613,9 +4457,8 @@
       <c r="G116" s="14"/>
       <c r="M116" s="14"/>
       <c r="S116" s="14"/>
-      <c r="T116"/>
-    </row>
-    <row r="117" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -4634,9 +4477,8 @@
       <c r="G117" s="14"/>
       <c r="M117" s="14"/>
       <c r="S117" s="14"/>
-      <c r="T117"/>
-    </row>
-    <row r="118" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>113</v>
       </c>
@@ -4658,9 +4500,8 @@
       <c r="G118" s="14"/>
       <c r="M118" s="14"/>
       <c r="S118" s="14"/>
-      <c r="T118"/>
-    </row>
-    <row r="119" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
@@ -4682,9 +4523,8 @@
       <c r="G119" s="14"/>
       <c r="M119" s="14"/>
       <c r="S119" s="14"/>
-      <c r="T119"/>
-    </row>
-    <row r="120" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>117</v>
       </c>
@@ -4706,9 +4546,8 @@
       <c r="G120" s="14"/>
       <c r="M120" s="14"/>
       <c r="S120" s="14"/>
-      <c r="T120"/>
-    </row>
-    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -4730,9 +4569,8 @@
       <c r="G121" s="14"/>
       <c r="M121" s="14"/>
       <c r="S121" s="14"/>
-      <c r="T121"/>
-    </row>
-    <row r="122" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -4754,9 +4592,8 @@
       <c r="G122" s="14"/>
       <c r="M122" s="14"/>
       <c r="S122" s="14"/>
-      <c r="T122"/>
-    </row>
-    <row r="123" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -4784,9 +4621,8 @@
         <v>16</v>
       </c>
       <c r="S123" s="14"/>
-      <c r="T123"/>
-    </row>
-    <row r="124" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>154</v>
       </c>
@@ -4808,17 +4644,16 @@
       <c r="G124" s="14"/>
       <c r="M124" s="14"/>
       <c r="S124" s="14"/>
-      <c r="T124"/>
-    </row>
-    <row r="125" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -4843,9 +4678,8 @@
       <c r="R125"/>
       <c r="S125" s="17"/>
       <c r="T125"/>
-      <c r="U125"/>
-    </row>
-    <row r="126" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
@@ -4867,9 +4701,8 @@
       <c r="G126" s="14"/>
       <c r="M126" s="14"/>
       <c r="S126" s="14"/>
-      <c r="T126"/>
-    </row>
-    <row r="127" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4897,9 +4730,8 @@
         <v>16</v>
       </c>
       <c r="S127" s="14"/>
-      <c r="T127"/>
-    </row>
-    <row r="128" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>240</v>
       </c>
@@ -4927,17 +4759,16 @@
         <v>16</v>
       </c>
       <c r="S128" s="14"/>
-      <c r="T128"/>
-    </row>
-    <row r="129" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>0</v>
@@ -4949,7 +4780,7 @@
       <c r="M129" s="14"/>
       <c r="S129" s="14"/>
     </row>
-    <row r="130" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4966,14 +4797,13 @@
         <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G130" s="14"/>
       <c r="M130" s="14"/>
       <c r="S130" s="14"/>
-      <c r="T130"/>
-    </row>
-    <row r="131" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:19" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>257</v>
       </c>
@@ -4995,9 +4825,8 @@
       <c r="G131" s="14"/>
       <c r="M131" s="14"/>
       <c r="S131" s="14"/>
-      <c r="T131"/>
-    </row>
-    <row r="132" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -5019,7 +4848,6 @@
       <c r="G132" s="14"/>
       <c r="M132" s="14"/>
       <c r="S132" s="14"/>
-      <c r="T132"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226C230-9D1A-410E-AA5E-94CEFF38F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09267B-3F44-4845-B65B-6F6A6514649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>includedoclist</t>
   </si>
 </sst>
 </file>
@@ -1599,13 +1602,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2227,6 +2230,9 @@
       <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="M25" s="14"/>
       <c r="S25" s="14"/>
@@ -2271,16 +2277,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M27" s="14"/>
-      <c r="N27" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2303,13 +2303,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M28" s="14"/>
-      <c r="N28" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -3322,20 +3316,17 @@
       <c r="M70" s="14"/>
       <c r="S70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>289</v>
+    <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E71" t="b">
+      <c r="E71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3345,47 +3336,47 @@
       <c r="M71" s="14"/>
       <c r="S71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>220</v>
+    <row r="72" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G72" s="14"/>
       <c r="M72" s="14"/>
       <c r="S72" s="14"/>
     </row>
     <row r="73" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>228</v>
+      <c r="A73" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3393,13 +3384,13 @@
     </row>
     <row r="74" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -3408,44 +3399,44 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="G74" s="14"/>
       <c r="M74" s="14"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>212</v>
+    <row r="75" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>341</v>
       </c>
       <c r="G75" s="14"/>
       <c r="M75" s="14"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
@@ -3454,30 +3445,30 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="G76" s="14"/>
       <c r="M76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
@@ -3485,13 +3476,13 @@
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>0</v>
@@ -3500,50 +3491,50 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="G79" s="14"/>
       <c r="M79" s="14"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G80" s="14"/>
       <c r="M80" s="14"/>
@@ -3551,13 +3542,13 @@
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>0</v>
@@ -3566,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
@@ -3574,13 +3565,13 @@
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3588,49 +3579,22 @@
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F82" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="M82" s="14"/>
-      <c r="N82" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="S82" s="14"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>0</v>
@@ -3639,18 +3603,48 @@
         <v>1</v>
       </c>
       <c r="G83" s="14"/>
+      <c r="H83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="M83" s="14"/>
+      <c r="N83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="S83" s="14"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
@@ -3662,38 +3656,35 @@
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
     </row>
-    <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G85" s="14"/>
       <c r="M85" s="14"/>
       <c r="S85" s="14"/>
     </row>
-    <row r="86" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
@@ -3702,21 +3693,21 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="G86" s="14"/>
       <c r="M86" s="14"/>
       <c r="S86" s="14"/>
     </row>
-    <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>0</v>
@@ -3725,317 +3716,317 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="88" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>16</v>
+    <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
     </row>
-    <row r="89" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="14"/>
-    </row>
-    <row r="90" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="14"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="14"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
       <c r="S90" s="14"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="D91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
     </row>
-    <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
     </row>
-    <row r="93" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
     </row>
-    <row r="94" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>360</v>
+    <row r="94" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G94" s="14"/>
       <c r="M94" s="14"/>
       <c r="S94" s="14"/>
     </row>
-    <row r="95" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>19</v>
+    <row r="95" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
     </row>
-    <row r="96" spans="1:19" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A96" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>213</v>
+    <row r="96" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G96" s="14"/>
       <c r="M96" s="14"/>
       <c r="S96" s="14"/>
     </row>
-    <row r="97" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="b">
-        <v>0</v>
+    <row r="97" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G97" s="14"/>
-      <c r="H97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="M97" s="14"/>
-      <c r="N97" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="S97" s="14"/>
     </row>
     <row r="98" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M98" s="14"/>
+      <c r="N98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S98" s="14"/>
+    </row>
+    <row r="99" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="D99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="S98" s="14"/>
-    </row>
-    <row r="99" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G99" s="14"/>
       <c r="M99" s="14"/>
@@ -4043,136 +4034,118 @@
     </row>
     <row r="100" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D100" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="G100" s="14"/>
       <c r="M100" s="14"/>
       <c r="S100" s="14"/>
     </row>
     <row r="101" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="S101" s="14"/>
+    </row>
+    <row r="102" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A102" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="18" t="s">
+      <c r="B102" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D101" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18" t="s">
+      <c r="D102" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="19"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18" t="s">
+      <c r="M102" s="19"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="14"/>
-    </row>
-    <row r="102" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
+      <c r="S102" s="14"/>
+    </row>
+    <row r="103" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="D103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="S102" s="14"/>
-    </row>
-    <row r="103" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G103" s="14"/>
-      <c r="H103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M103" s="14"/>
-      <c r="N103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S103" s="14"/>
     </row>
     <row r="104" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>1</v>
@@ -4181,50 +4154,68 @@
         <v>4</v>
       </c>
       <c r="G104" s="14"/>
+      <c r="H104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M104" s="14"/>
+      <c r="N104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S104" s="14"/>
     </row>
     <row r="105" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
       <c r="S105" s="14"/>
     </row>
-    <row r="106" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="D106" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
@@ -4232,13 +4223,13 @@
     </row>
     <row r="107" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>0</v>
@@ -4246,31 +4237,31 @@
       <c r="E107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>251</v>
+      <c r="F107" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
       <c r="S107" s="14"/>
     </row>
-    <row r="108" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>276</v>
+        <v>248</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>25</v>
+      <c r="F108" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="G108" s="14"/>
       <c r="M108" s="14"/>
@@ -4278,83 +4269,83 @@
     </row>
     <row r="109" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="D109" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
       <c r="S109" s="14"/>
     </row>
-    <row r="110" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>274</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
+    <row r="110" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
-      </c>
-      <c r="D110" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>360</v>
+        <v>348</v>
+      </c>
+      <c r="D110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
-      <c r="T110"/>
-    </row>
-    <row r="111" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="111" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>360</v>
       </c>
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
-    </row>
-    <row r="112" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T111"/>
+    </row>
+    <row r="112" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4362,22 +4353,22 @@
       <c r="E112" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>214</v>
+      <c r="F112" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G112" s="14"/>
       <c r="M112" s="14"/>
       <c r="S112" s="14"/>
     </row>
-    <row r="113" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4386,21 +4377,21 @@
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="G113" s="14"/>
       <c r="M113" s="14"/>
       <c r="S113" s="14"/>
     </row>
-    <row r="114" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4408,28 +4399,31 @@
       <c r="E114" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>16</v>
+      <c r="F114" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="G114" s="14"/>
       <c r="M114" s="14"/>
       <c r="S114" s="14"/>
     </row>
-    <row r="115" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E115" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
@@ -4437,65 +4431,62 @@
     </row>
     <row r="116" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="D116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="G116" s="14"/>
       <c r="M116" s="14"/>
       <c r="S116" s="14"/>
     </row>
-    <row r="117" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D117" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G117" s="14"/>
       <c r="M117" s="14"/>
       <c r="S117" s="14"/>
     </row>
-    <row r="118" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D118" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>220</v>
+    <row r="118" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G118" s="14"/>
       <c r="M118" s="14"/>
@@ -4503,13 +4494,13 @@
     </row>
     <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D119" s="5" t="b">
         <v>1</v>
@@ -4526,45 +4517,45 @@
     </row>
     <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D120" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E120" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="G120" s="14"/>
       <c r="M120" s="14"/>
       <c r="S120" s="14"/>
     </row>
-    <row r="121" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>4</v>
+    <row r="121" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G121" s="14"/>
       <c r="M121" s="14"/>
@@ -4572,16 +4563,16 @@
     </row>
     <row r="122" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1" t="b">
         <v>1</v>
@@ -4590,21 +4581,27 @@
         <v>4</v>
       </c>
       <c r="G122" s="14"/>
+      <c r="H122" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M122" s="14"/>
+      <c r="N122" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S122" s="14"/>
     </row>
     <row r="123" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D123" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="1" t="b">
         <v>1</v>
@@ -4613,24 +4610,18 @@
         <v>4</v>
       </c>
       <c r="G123" s="14"/>
-      <c r="H123" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M123" s="14"/>
-      <c r="N123" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S123" s="14"/>
     </row>
-    <row r="124" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -4642,104 +4633,104 @@
         <v>4</v>
       </c>
       <c r="G124" s="14"/>
+      <c r="H124" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M124" s="14"/>
+      <c r="N124" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S124" s="14"/>
     </row>
-    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="125" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="S125" s="14"/>
+    </row>
+    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>277</v>
       </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
         <v>278</v>
       </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="14"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125" s="17"/>
-      <c r="N125"/>
-      <c r="O125"/>
-      <c r="P125"/>
-      <c r="Q125"/>
-      <c r="R125"/>
-      <c r="S125" s="17"/>
-      <c r="T125"/>
-    </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A126" s="5" t="s">
+      <c r="G126" s="14"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126" s="17"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126" s="17"/>
+      <c r="T126"/>
+    </row>
+    <row r="127" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B127" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="14"/>
-      <c r="M126" s="14"/>
-      <c r="S126" s="14"/>
-    </row>
-    <row r="127" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>4</v>
+      <c r="D127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G127" s="14"/>
-      <c r="H127" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M127" s="14"/>
-      <c r="N127" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S127" s="14"/>
     </row>
     <row r="128" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
@@ -4762,92 +4753,121 @@
     </row>
     <row r="129" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="D129" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F129" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G129" s="14"/>
+      <c r="H129" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M129" s="14"/>
+      <c r="N129" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S129" s="14"/>
     </row>
     <row r="130" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="D130" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="G130" s="14"/>
       <c r="M130" s="14"/>
       <c r="S130" s="14"/>
     </row>
-    <row r="131" spans="1:19" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E131" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="G131" s="14"/>
       <c r="M131" s="14"/>
       <c r="S131" s="14"/>
     </row>
-    <row r="132" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:19" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G132" s="14"/>
       <c r="M132" s="14"/>
       <c r="S132" s="14"/>
+    </row>
+    <row r="133" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="S133" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09267B-3F44-4845-B65B-6F6A6514649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D751D-516F-4AA7-BD00-59ACFF486C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1605,10 +1605,10 @@
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G71" s="14"/>
       <c r="M71" s="14"/>

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D751D-516F-4AA7-BD00-59ACFF486C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5944F6FC-89E0-43DD-891E-E82D741114D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="373">
   <si>
     <t>Name</t>
   </si>
@@ -1130,6 +1130,21 @@
   </si>
   <si>
     <t>includedoclist</t>
+  </si>
+  <si>
+    <t>OPENAPI: uitgebreid</t>
+  </si>
+  <si>
+    <t>OpenAPI</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
@@ -1604,11 +1619,11 @@
   </sheetPr>
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1632,9 +1647,10 @@
     <col min="17" max="17" width="15.765625" customWidth="1"/>
     <col min="18" max="18" width="16.07421875" customWidth="1"/>
     <col min="19" max="19" width="4.4609375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="16.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,8 +1702,11 @@
         <v>253</v>
       </c>
       <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T1" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
@@ -1722,8 +1741,11 @@
         <v>318</v>
       </c>
       <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="T2" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
@@ -1743,7 +1765,7 @@
       <c r="M3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1788,7 @@
       <c r="M4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1811,7 @@
       <c r="M5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
@@ -1809,7 +1831,7 @@
       <c r="M6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -1829,7 +1851,7 @@
       <c r="M7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1838,7 +1860,7 @@
       <c r="M8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>336</v>
       </c>
@@ -1861,7 +1883,7 @@
       <c r="M9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>162</v>
       </c>
@@ -1884,7 +1906,7 @@
       <c r="M10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1929,7 @@
       <c r="M11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
@@ -1927,7 +1949,7 @@
       <c r="M12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -1950,7 +1972,7 @@
       <c r="M13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -1973,7 +1995,7 @@
       <c r="M14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2018,7 @@
       <c r="M15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2808,7 +2830,7 @@
       <c r="M48" s="14"/>
       <c r="S48" s="14"/>
     </row>
-    <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="21" t="s">
         <v>51</v>
       </c>
@@ -2831,7 +2853,7 @@
       <c r="M49" s="14"/>
       <c r="S49" s="14"/>
     </row>
-    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2840,7 +2862,7 @@
       <c r="M50" s="14"/>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -2860,7 +2882,7 @@
       <c r="M51" s="14"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2883,7 +2905,7 @@
       <c r="M52" s="14"/>
       <c r="S52" s="14"/>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2906,7 +2928,7 @@
       <c r="M53" s="14"/>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>221</v>
       </c>
@@ -2922,7 +2944,7 @@
       <c r="M54" s="15"/>
       <c r="S54" s="15"/>
     </row>
-    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>181</v>
       </c>
@@ -2945,7 +2967,7 @@
       <c r="M55" s="14"/>
       <c r="S55" s="14"/>
     </row>
-    <row r="56" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>183</v>
       </c>
@@ -2968,7 +2990,7 @@
       <c r="M56" s="14"/>
       <c r="S56" s="14"/>
     </row>
-    <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2991,7 +3013,7 @@
       <c r="M57" s="14"/>
       <c r="S57" s="14"/>
     </row>
-    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -3014,7 +3036,7 @@
       <c r="M58" s="14"/>
       <c r="S58" s="14"/>
     </row>
-    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -3037,7 +3059,7 @@
       <c r="M59" s="14"/>
       <c r="S59" s="14"/>
     </row>
-    <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>186</v>
       </c>
@@ -3060,7 +3082,7 @@
       <c r="M60" s="14"/>
       <c r="S60" s="14"/>
     </row>
-    <row r="61" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>315</v>
       </c>
@@ -3086,7 +3108,7 @@
       <c r="M61" s="14"/>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>279</v>
       </c>
@@ -3116,8 +3138,9 @@
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
       <c r="S62" s="16"/>
-    </row>
-    <row r="63" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T62" s="11"/>
+    </row>
+    <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>281</v>
       </c>
@@ -3140,7 +3163,7 @@
       <c r="M63" s="14"/>
       <c r="S63" s="14"/>
     </row>
-    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>285</v>
       </c>
@@ -3170,8 +3193,9 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
       <c r="S64" s="14"/>
-    </row>
-    <row r="65" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T64" s="20"/>
+    </row>
+    <row r="65" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3191,7 +3215,7 @@
       <c r="M65" s="14"/>
       <c r="S65" s="14"/>
     </row>
-    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>293</v>
       </c>
@@ -3214,7 +3238,7 @@
       <c r="M66" s="14"/>
       <c r="S66" s="14"/>
     </row>
-    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>294</v>
       </c>
@@ -3237,7 +3261,7 @@
       <c r="M67" s="14"/>
       <c r="S67" s="14"/>
     </row>
-    <row r="68" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>241</v>
       </c>
@@ -3269,8 +3293,9 @@
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="16"/>
-    </row>
-    <row r="69" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T68" s="11"/>
+    </row>
+    <row r="69" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>190</v>
       </c>
@@ -3293,7 +3318,7 @@
       <c r="M69" s="14"/>
       <c r="S69" s="14"/>
     </row>
-    <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
@@ -3316,7 +3341,7 @@
       <c r="M70" s="14"/>
       <c r="S70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>367</v>
       </c>
@@ -3336,7 +3361,7 @@
       <c r="M71" s="14"/>
       <c r="S71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -3359,7 +3384,7 @@
       <c r="M72" s="14"/>
       <c r="S72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>66</v>
       </c>
@@ -3382,7 +3407,7 @@
       <c r="M73" s="14"/>
       <c r="S73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -3405,7 +3430,7 @@
       <c r="M74" s="14"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>339</v>
       </c>
@@ -3428,7 +3453,7 @@
       <c r="M75" s="14"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
@@ -3451,7 +3476,7 @@
       <c r="M76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -3474,7 +3499,7 @@
       <c r="M77" s="14"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>193</v>
       </c>
@@ -3497,7 +3522,7 @@
       <c r="M78" s="14"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>254</v>
       </c>
@@ -3520,7 +3545,7 @@
       <c r="M79" s="14"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
@@ -3540,7 +3565,7 @@
       <c r="M80" s="14"/>
       <c r="S80" s="14"/>
     </row>
-    <row r="81" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>355</v>
       </c>
@@ -3562,8 +3587,11 @@
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
-    </row>
-    <row r="82" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T81" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>352</v>
       </c>
@@ -3585,8 +3613,11 @@
       <c r="G82" s="14"/>
       <c r="M82" s="14"/>
       <c r="S82" s="14"/>
-    </row>
-    <row r="83" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T82" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>353</v>
       </c>
@@ -3635,8 +3666,11 @@
         <v>351</v>
       </c>
       <c r="S83" s="14"/>
-    </row>
-    <row r="84" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T83" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>354</v>
       </c>
@@ -3655,8 +3689,11 @@
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
-    </row>
-    <row r="85" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T84" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>196</v>
       </c>
@@ -3676,7 +3713,7 @@
       <c r="M85" s="14"/>
       <c r="S85" s="14"/>
     </row>
-    <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>329</v>
       </c>
@@ -3699,7 +3736,7 @@
       <c r="M86" s="14"/>
       <c r="S86" s="14"/>
     </row>
-    <row r="87" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>331</v>
       </c>
@@ -3722,7 +3759,7 @@
       <c r="M87" s="14"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>332</v>
       </c>
@@ -3745,7 +3782,7 @@
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
     </row>
-    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>75</v>
       </c>
@@ -3768,7 +3805,7 @@
       <c r="M89" s="14"/>
       <c r="S89" s="14"/>
     </row>
-    <row r="90" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>298</v>
       </c>
@@ -3800,8 +3837,9 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="14"/>
-    </row>
-    <row r="91" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>219</v>
       </c>
@@ -3824,7 +3862,7 @@
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
     </row>
-    <row r="92" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
@@ -3847,7 +3885,7 @@
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
     </row>
-    <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>79</v>
       </c>
@@ -3867,7 +3905,7 @@
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
     </row>
-    <row r="94" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3928,7 @@
       <c r="M94" s="14"/>
       <c r="S94" s="14"/>
     </row>
-    <row r="95" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>84</v>
       </c>
@@ -3913,7 +3951,7 @@
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
     </row>
-    <row r="96" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>197</v>
       </c>
@@ -4008,6 +4046,9 @@
         <v>303</v>
       </c>
       <c r="S98" s="14"/>
+      <c r="T98" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="99" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
@@ -4114,6 +4155,7 @@
         <v>4</v>
       </c>
       <c r="S102" s="14"/>
+      <c r="T102" s="18"/>
     </row>
     <row r="103" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
@@ -4174,6 +4216,9 @@
         <v>16</v>
       </c>
       <c r="S104" s="14"/>
+      <c r="T104" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="105" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
@@ -4335,7 +4380,6 @@
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
-      <c r="T111"/>
     </row>
     <row r="112" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5944F6FC-89E0-43DD-891E-E82D741114D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657CAD3-B0DC-49D2-A0C6-6DCD07173A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="373">
   <si>
     <t>Name</t>
   </si>
@@ -1620,10 +1620,10 @@
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2423,7 +2423,7 @@
       <c r="M32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="M33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>325</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="M35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>170</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="M36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>173</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="M37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
         <v>272</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="M40" s="14"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
         <v>342</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="M41" s="14"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="M42" s="14"/>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="M43" s="14"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="1" t="s">
@@ -2737,8 +2737,11 @@
         <v>16</v>
       </c>
       <c r="S44" s="14"/>
-    </row>
-    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="M45" s="14"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
@@ -2784,7 +2787,7 @@
       <c r="M46" s="14"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -2807,7 +2810,7 @@
       <c r="M47" s="14"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657CAD3-B0DC-49D2-A0C6-6DCD07173A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB3131-71E5-43C1-B549-EB649466DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="372">
   <si>
     <t>Name</t>
   </si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t>BASE</t>
-  </si>
-  <si>
-    <t>API</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1617,10 @@
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U44" sqref="U44"/>
+      <selection pane="bottomRight" activeCell="T99" sqref="T99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2053,7 +2050,7 @@
       </c>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2076,7 +2073,7 @@
       <c r="M17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>223</v>
       </c>
@@ -2099,7 +2096,7 @@
       <c r="M18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>225</v>
       </c>
@@ -2118,7 +2115,7 @@
       <c r="M19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>166</v>
       </c>
@@ -2138,7 +2135,7 @@
       <c r="M20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2161,7 +2158,7 @@
       <c r="M21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -2184,7 +2181,7 @@
       <c r="M22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2213,7 +2210,7 @@
       </c>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2236,7 +2233,7 @@
       <c r="M24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -2259,7 +2256,7 @@
       <c r="M25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2282,7 +2279,7 @@
       <c r="M26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2302,7 @@
       <c r="M27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>322</v>
       </c>
@@ -2328,7 +2325,7 @@
       <c r="M28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>291</v>
       </c>
@@ -2351,7 +2348,7 @@
       <c r="M29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2373,8 +2370,11 @@
       <c r="G30" s="14"/>
       <c r="M30" s="14"/>
       <c r="S30" s="14"/>
-    </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="M31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>260</v>
       </c>
@@ -2422,6 +2422,9 @@
       </c>
       <c r="M32" s="14"/>
       <c r="S32" s="14"/>
+      <c r="T32" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
@@ -2474,6 +2477,9 @@
         <v>16</v>
       </c>
       <c r="S34" s="14"/>
+      <c r="T34" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
@@ -2497,6 +2503,9 @@
       <c r="G35" s="14"/>
       <c r="M35" s="14"/>
       <c r="S35" s="14"/>
+      <c r="T35" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
@@ -2589,6 +2598,9 @@
       <c r="G39" s="14"/>
       <c r="M39" s="14"/>
       <c r="S39" s="14"/>
+      <c r="T39" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
@@ -2624,6 +2636,9 @@
       </c>
       <c r="M40" s="14"/>
       <c r="S40" s="14"/>
+      <c r="T40" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
@@ -3616,7 +3631,7 @@
       <c r="G82" s="14"/>
       <c r="M82" s="14"/>
       <c r="S82" s="14"/>
-      <c r="T82" s="1" t="s">
+      <c r="T82" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4050,7 +4065,7 @@
       </c>
       <c r="S98" s="14"/>
       <c r="T98" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -4636,6 +4651,9 @@
         <v>16</v>
       </c>
       <c r="S122" s="14"/>
+      <c r="T122" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="123" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">

--- a/src/main/resources/input/Armatiek/props/Armatiek.xlsx
+++ b/src/main/resources/input/Armatiek/props/Armatiek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Armatiek\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB3131-71E5-43C1-B549-EB649466DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DBAB42-8F08-4E51-9264-2AD6C685C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="375">
   <si>
     <t>Name</t>
   </si>
@@ -1142,6 +1142,15 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>metamodelnature</t>
+  </si>
+  <si>
+    <t>MIM;GROUPING</t>
+  </si>
+  <si>
+    <t>OPENAPI</t>
   </si>
 </sst>
 </file>
@@ -1614,13 +1623,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T99" sqref="T99"/>
+      <selection pane="bottomRight" activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3711,58 +3720,49 @@
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="b">
-        <v>1</v>
+        <v>372</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="G85" s="14"/>
       <c r="M85" s="14"/>
       <c r="S85" s="14"/>
-    </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T85" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G86" s="14"/>
       <c r="M86" s="14"/>
       <c r="S86" s="14"/>
     </row>
-    <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>0</v>
@@ -3771,21 +3771,21 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="88" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>0</v>
@@ -3794,321 +3794,321 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
     </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>16</v>
+    <row r="89" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="G89" s="14"/>
       <c r="M89" s="14"/>
       <c r="S89" s="14"/>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="S90" s="14"/>
+    </row>
+    <row r="91" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="1"/>
-    </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="14"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="14"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
       <c r="S91" s="14"/>
+      <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="D92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
     </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
     </row>
-    <row r="94" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="G94" s="14"/>
       <c r="M94" s="14"/>
       <c r="S94" s="14"/>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>360</v>
+    <row r="95" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
     </row>
-    <row r="96" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>19</v>
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="G96" s="14"/>
       <c r="M96" s="14"/>
       <c r="S96" s="14"/>
     </row>
-    <row r="97" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>213</v>
+    <row r="97" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G97" s="14"/>
       <c r="M97" s="14"/>
       <c r="S97" s="14"/>
     </row>
-    <row r="98" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>0</v>
+    <row r="98" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G98" s="14"/>
-      <c r="H98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="M98" s="14"/>
-      <c r="N98" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="S98" s="14"/>
-      <c r="T98" s="1" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="99" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M99" s="14"/>
+      <c r="N99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S99" s="14"/>
+      <c r="T99" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="D100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="S99" s="14"/>
-    </row>
-    <row r="100" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A100" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G100" s="14"/>
       <c r="M100" s="14"/>
@@ -4116,140 +4116,119 @@
     </row>
     <row r="101" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D101" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E101" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="G101" s="14"/>
       <c r="M101" s="14"/>
       <c r="S101" s="14"/>
     </row>
     <row r="102" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="S102" s="14"/>
+    </row>
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A103" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="18" t="s">
+      <c r="B103" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18" t="s">
+      <c r="D103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="19"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18" t="s">
+      <c r="M103" s="19"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S102" s="14"/>
-      <c r="T102" s="18"/>
-    </row>
-    <row r="103" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+      <c r="S103" s="14"/>
+      <c r="T103" s="18"/>
+    </row>
+    <row r="104" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="D104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="S103" s="14"/>
-    </row>
-    <row r="104" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G104" s="14"/>
-      <c r="H104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M104" s="14"/>
-      <c r="N104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S104" s="14"/>
-      <c r="T104" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="105" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -4258,50 +4237,71 @@
         <v>4</v>
       </c>
       <c r="G105" s="14"/>
+      <c r="H105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M105" s="14"/>
+      <c r="N105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S105" s="14"/>
+      <c r="T105" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="106" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D106" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
     </row>
-    <row r="107" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
@@ -4309,13 +4309,13 @@
     </row>
     <row r="108" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>0</v>
@@ -4323,31 +4323,31 @@
       <c r="E108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>251</v>
+      <c r="F108" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="G108" s="14"/>
       <c r="M108" s="14"/>
       <c r="S108" s="14"/>
     </row>
-    <row r="109" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>276</v>
+        <v>248</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D109" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>25</v>
+      <c r="F109" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
@@ -4355,82 +4355,82 @@
     </row>
     <row r="110" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="D110" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
     </row>
-    <row r="111" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>274</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
+    <row r="111" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>275</v>
-      </c>
-      <c r="D111" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>360</v>
+        <v>348</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
     </row>
-    <row r="112" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>16</v>
+    <row r="112" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>274</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>360</v>
       </c>
       <c r="G112" s="14"/>
       <c r="M112" s="14"/>
       <c r="S112" s="14"/>
     </row>
-    <row r="113" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4438,22 +4438,22 @@
       <c r="E113" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>214</v>
+      <c r="F113" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G113" s="14"/>
       <c r="M113" s="14"/>
       <c r="S113" s="14"/>
     </row>
-    <row r="114" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4462,21 +4462,21 @@
         <v>1</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="G114" s="14"/>
       <c r="M114" s="14"/>
       <c r="S114" s="14"/>
     </row>
-    <row r="115" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>0</v>
@@ -4484,28 +4484,31 @@
       <c r="E115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>16</v>
+      <c r="F115" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
       <c r="S115" s="14"/>
     </row>
-    <row r="116" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E116" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G116" s="14"/>
       <c r="M116" s="14"/>
@@ -4513,65 +4516,62 @@
     </row>
     <row r="117" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="D117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="G117" s="14"/>
       <c r="M117" s="14"/>
       <c r="S117" s="14"/>
     </row>
-    <row r="118" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G118" s="14"/>
       <c r="M118" s="14"/>
       <c r="S118" s="14"/>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>220</v>
+    <row r="119" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G119" s="14"/>
       <c r="M119" s="14"/>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D120" s="5" t="b">
         <v>1</v>
@@ -4602,71 +4602,62 @@
     </row>
     <row r="121" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="G121" s="14"/>
       <c r="M121" s="14"/>
       <c r="S121" s="14"/>
     </row>
-    <row r="122" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>4</v>
+    <row r="122" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G122" s="14"/>
-      <c r="H122" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M122" s="14"/>
-      <c r="N122" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S122" s="14"/>
-      <c r="T122" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="123" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D123" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" s="1" t="b">
         <v>1</v>
@@ -4675,21 +4666,30 @@
         <v>4</v>
       </c>
       <c r="G123" s="14"/>
+      <c r="H123" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M123" s="14"/>
+      <c r="N123" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S123" s="14"/>
+      <c r="T123" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="b">
         <v>1</v>
@@ -4698,24 +4698,18 @@
         <v>4</v>
       </c>
       <c r="G124" s="14"/>
-      <c r="H124" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M124" s="14"/>
-      <c r="N124" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S124" s="14"/>
     </row>
-    <row r="125" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -4727,104 +4721,104 @@
         <v>4</v>
       </c>
       <c r="G125" s="14"/>
+      <c r="H125" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M125" s="14"/>
+      <c r="N125" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S125" s="14"/>
     </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="126" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>277</v>
       </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
         <v>278</v>
       </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="14"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126" s="17"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
-      <c r="R126"/>
-      <c r="S126" s="17"/>
-      <c r="T126"/>
-    </row>
-    <row r="127" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A127" s="5" t="s">
+      <c r="G127" s="14"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127" s="17"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127" s="17"/>
+      <c r="T127"/>
+    </row>
+    <row r="128" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E127" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="S127" s="14"/>
-    </row>
-    <row r="128" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>4</v>
+      <c r="D128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G128" s="14"/>
-      <c r="H128" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M128" s="14"/>
-      <c r="N128" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S128" s="14"/>
     </row>
     <row r="129" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
@@ -4847,92 +4841,121 @@
     </row>
     <row r="130" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F130" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G130" s="14"/>
+      <c r="H130" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M130" s="14"/>
+      <c r="N130" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S130" s="14"/>
     </row>
     <row r="131" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="D131" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="G131" s="14"/>
       <c r="M131" s="14"/>
       <c r="S131" s="14"/>
     </row>
-    <row r="132" spans="1:19" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="G132" s="14"/>
       <c r="M132" s="14"/>
       <c r="S132" s="14"/>
     </row>
-    <row r="133" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:19" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G133" s="14"/>
       <c r="M133" s="14"/>
       <c r="S133" s="14"/>
+    </row>
+    <row r="134" spans="1:19" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="S134" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
